--- a/SMO/TemplateExcel/Template_KeHoachChiPhiMienBac.xlsx
+++ b/SMO/TemplateExcel/Template_KeHoachChiPhiMienBac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF59B3F-F2C4-4653-9AC7-B0E3C96D7F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D92CE-0240-441F-89F9-98B176AD3831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,12 +60,6 @@
     <t>THD</t>
   </si>
   <si>
-    <t>VII</t>
-  </si>
-  <si>
-    <t>VDH</t>
-  </si>
-  <si>
     <t>VDO</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>TÊN KHOẢN MỤC CHI PHÍ</t>
+  </si>
+  <si>
+    <t>DIN</t>
+  </si>
+  <si>
+    <t>NAF</t>
   </si>
 </sst>
 </file>
@@ -177,12 +177,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -191,6 +185,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -509,14 +509,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="6" customWidth="1"/>
     <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
@@ -538,40 +538,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
+      <c r="A1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -579,70 +579,70 @@
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="6"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
@@ -650,22 +650,22 @@
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="4" t="s">
         <v>6</v>
       </c>
@@ -673,22 +673,22 @@
         <v>7</v>
       </c>
       <c r="N8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="R8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/SMO/TemplateExcel/Template_KeHoachChiPhiMienBac.xlsx
+++ b/SMO/TemplateExcel/Template_KeHoachChiPhiMienBac.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112D92CE-0240-441F-89F9-98B176AD3831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59E721-CB36-49A0-87FE-81E159C72E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
+    <sheet name="Dữ liệu chi phí" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dòng tiền chi khác của dự án'!$A$6:$H$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dữ liệu chi phí'!$A$6:$H$11</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
-    <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
-  </si>
-  <si>
     <t>Người lập:</t>
   </si>
   <si>
@@ -78,10 +86,13 @@
     <t>TÊN KHOẢN MỤC CHI PHÍ</t>
   </si>
   <si>
-    <t>DIN</t>
-  </si>
-  <si>
-    <t>NAF</t>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>VDH</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH CHI PHÍ CHI NHÁNH MIỀN BẮC</t>
   </si>
 </sst>
 </file>
@@ -211,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +262,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +368,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -509,30 +520,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="48.5546875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="14.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.77734375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="19" width="15.77734375" style="1" customWidth="1"/>
     <col min="20" max="20" width="31.6640625" style="1" customWidth="1"/>
     <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -544,7 +543,7 @@
       <c r="A2" s="5"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
@@ -557,7 +556,7 @@
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -572,7 +571,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -580,13 +579,13 @@
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -605,14 +604,14 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
       <c r="T6" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -621,13 +620,13 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -636,7 +635,7 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T7" s="9"/>
     </row>
@@ -644,48 +643,48 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="S8" s="9"/>
       <c r="T8" s="9"/>
